--- a/Excel_Stock/Stock_Kelly_One_Asset.xlsx
+++ b/Excel_Stock/Stock_Kelly_One_Asset.xlsx
@@ -8,13 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\WorkingOnExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E906B8-3C03-4DE0-B766-9EFC0F0FA6A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C2DB17-B6CE-470E-A40B-17780A574AB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A310F71-8CEC-4366-9230-8545650F81BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7A310F71-8CEC-4366-9230-8545650F81BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$F$6:$H$6</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$I$3</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$F$3</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -137,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +190,9 @@
   </si>
   <si>
     <t>AMD Returns</t>
+  </si>
+  <si>
+    <t>Input how much money you want to put in this weight of stock</t>
   </si>
 </sst>
 </file>
@@ -201,7 +236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,6 +255,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -234,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -243,6 +284,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +603,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H16" sqref="H15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,6 +611,8 @@
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -589,6 +633,9 @@
       <c r="B2" s="3">
         <v>2.2000000000000002</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -605,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="3">
-        <v>0.71266883167750272</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -667,15 +714,15 @@
       </c>
       <c r="F6">
         <f>LOG(1+$F$3*F4)</f>
-        <v>4.9431716340227513E-2</v>
+        <v>5.5119703992070002E-2</v>
       </c>
       <c r="G6">
         <f t="shared" ref="G6:H6" si="1">LOG(1+$F$3*G4)</f>
-        <v>2.3519602927210881E-4</v>
+        <v>2.6400843297070723E-4</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>2.3426964071522071E-2</v>
+        <v>2.6212720010166196E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -692,9 +739,9 @@
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <f>AVERAGE(F6:H6)</f>
-        <v>2.4364625480340563E-2</v>
+        <v>2.719881081173563E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
